--- a/media/excel_templates/salary_template.xlsx
+++ b/media/excel_templates/salary_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1860" yWindow="1860" windowWidth="20460" windowHeight="10770" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="1" state="visible" r:id="rId1"/>
@@ -605,14 +605,14 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1093,10 +1093,10 @@
           <t>Employee ID</t>
         </is>
       </c>
-      <c r="B1" s="38" t="n"/>
+      <c r="B1" s="40" t="n"/>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PCS0030</t>
+          <t>PCS0007</t>
         </is>
       </c>
       <c r="D1" s="51" t="inlineStr">
@@ -1119,7 +1119,7 @@
       <c r="B2" s="48" t="n"/>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Mr. Pravin Milake</t>
+          <t>Mr. Gaurab Pal</t>
         </is>
       </c>
       <c r="D2" s="50" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="B3" s="59" t="n"/>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>L2</t>
+          <t>L3</t>
         </is>
       </c>
       <c r="D3" s="45" t="n"/>
@@ -1149,10 +1149,10 @@
       <c r="B4" s="55" t="n"/>
       <c r="C4" s="56" t="n"/>
       <c r="D4" s="70" t="n">
-        <v>28200</v>
+        <v>41000</v>
       </c>
       <c r="E4" s="71" t="n">
-        <v>31802</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1" thickBot="1">
@@ -1410,11 +1410,11 @@
         </is>
       </c>
       <c r="D17" s="72">
-        <f>(D7*12%)*12</f>
+        <f>D14*12</f>
         <v/>
       </c>
       <c r="E17" s="73">
-        <f>1800*12</f>
+        <f>E14*12</f>
         <v/>
       </c>
     </row>
@@ -1545,12 +1545,12 @@
           <t>Insurance</t>
         </is>
       </c>
-      <c r="C24" s="37" t="inlineStr">
+      <c r="C24" s="39" t="inlineStr">
         <is>
           <t>Insurance Benefits</t>
         </is>
       </c>
-      <c r="D24" s="38" t="n"/>
+      <c r="D24" s="40" t="n"/>
       <c r="E24" s="31" t="inlineStr">
         <is>
           <t>Amount</t>
@@ -1633,20 +1633,20 @@
           <t>Leaves</t>
         </is>
       </c>
-      <c r="C30" s="39" t="inlineStr">
+      <c r="C30" s="37" t="inlineStr">
         <is>
           <t>Leave (National monitised value of Earned Leaves for Full Years)</t>
         </is>
       </c>
-      <c r="D30" s="40" t="n"/>
+      <c r="D30" s="38" t="n"/>
       <c r="E30" s="83" t="n">
         <v>8000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C24:D24"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A1:B1"/>

--- a/media/excel_templates/salary_template.xlsx
+++ b/media/excel_templates/salary_template.xlsx
@@ -1,63 +1,261 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayk\Documents\Resources Plan and skill matrix\ResourceManagement\media\excel_templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2004A3D-B96B-4FC5-9F7C-314E19E3D187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>FY24-25</t>
+  </si>
+  <si>
+    <t>FY25-26</t>
+  </si>
+  <si>
+    <t>Name Of Employee</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly Gross </t>
+  </si>
+  <si>
+    <t>Sr. No</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Heads of Payment</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Basic Salary</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Allowances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House Rent Allowance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade Allowance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport Allowance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telephone/Internet Allowance </t>
+  </si>
+  <si>
+    <t>City Compensatory Allowance/Special</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>(A+B)</t>
+  </si>
+  <si>
+    <t>Gross Monthly</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Deductions</t>
+  </si>
+  <si>
+    <t>Employee Contribution to PF</t>
+  </si>
+  <si>
+    <t>Profession Tax</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>(C-D)</t>
+  </si>
+  <si>
+    <t>In Hand Monthly Salary</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Retirals Benefits (p.a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employer Contribution to PF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employer Gratuity Provision </t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Employer Contribution towards Insurance Enrolment</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Diwali Bonus</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Variable Pay</t>
+  </si>
+  <si>
+    <t>Annual Cost to Company (C+F+G)</t>
+  </si>
+  <si>
+    <t>Other Benefits</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t>Insurance Benefits</t>
+  </si>
+  <si>
+    <t>Group Health Insurance Policy (with Provision of Enhancement of Cover upto 200%)</t>
+  </si>
+  <si>
+    <t>Group Pesonal Accident Insurance</t>
+  </si>
+  <si>
+    <t>Workman Compensation</t>
+  </si>
+  <si>
+    <t>EDLI Coverage</t>
+  </si>
+  <si>
+    <t>Uniform</t>
+  </si>
+  <si>
+    <t>Uniform and Safety Gear</t>
+  </si>
+  <si>
+    <t>Leaves</t>
+  </si>
+  <si>
+    <t>Leave (National monitised value of Earned Leaves for Full Years)</t>
+  </si>
+  <si>
+    <t>PCS0007</t>
+  </si>
+  <si>
+    <t>Mr. Gaurab Pal</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -70,18 +268,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999816888943144"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.09997863704336681"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -467,308 +665,175 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="70">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="15" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="15" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1068,583 +1133,464 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="20.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="64" customWidth="1" min="3" max="3"/>
-    <col width="21.140625" customWidth="1" min="4" max="4"/>
-    <col width="19" customWidth="1" min="5" max="5"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="46" t="inlineStr">
-        <is>
-          <t>Employee ID</t>
-        </is>
-      </c>
-      <c r="B1" s="40" t="n"/>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PCS0007</t>
-        </is>
-      </c>
-      <c r="D1" s="51" t="inlineStr">
-        <is>
-          <t>FY24-25</t>
-        </is>
-      </c>
-      <c r="E1" s="66" t="inlineStr">
-        <is>
-          <t>FY25-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="61" t="inlineStr">
-        <is>
-          <t>Name Of Employee</t>
-        </is>
-      </c>
-      <c r="B2" s="48" t="n"/>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Mr. Gaurab Pal</t>
-        </is>
-      </c>
-      <c r="D2" s="50" t="n"/>
-      <c r="E2" s="67" t="n"/>
-    </row>
-    <row r="3" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A3" s="58" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="B3" s="59" t="n"/>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>L3</t>
-        </is>
-      </c>
-      <c r="D3" s="45" t="n"/>
-      <c r="E3" s="68" t="n"/>
-    </row>
-    <row r="4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A4" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monthly Gross </t>
-        </is>
-      </c>
-      <c r="B4" s="55" t="n"/>
-      <c r="C4" s="56" t="n"/>
-      <c r="D4" s="70" t="n">
-        <v>41000</v>
-      </c>
-      <c r="E4" s="71" t="n">
-        <v>46000</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="4" t="n"/>
-    </row>
-    <row r="6" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Sr. No</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>Head</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>Heads of Payment</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B7" s="9" t="inlineStr">
-        <is>
-          <t>Basic Salary</t>
-        </is>
-      </c>
-      <c r="C7" s="10" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="D7" s="72">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="67"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="68"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="35">
+        <v>41534</v>
+      </c>
+      <c r="E4" s="36">
+        <v>48300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11">
         <f>D4*50%</f>
-        <v/>
-      </c>
-      <c r="E7" s="73">
+        <v>20767</v>
+      </c>
+      <c r="E7" s="12">
         <f>E4*50%</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="41" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="B8" s="69" t="inlineStr">
-        <is>
-          <t>Allowances</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">House Rent Allowance </t>
-        </is>
-      </c>
-      <c r="D8" s="74">
+        <v>24150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="14">
         <f>D7*40%</f>
-        <v/>
-      </c>
-      <c r="E8" s="75">
+        <v>8306.8000000000011</v>
+      </c>
+      <c r="E8" s="15">
         <f>E7*40%</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="42" t="n"/>
-      <c r="B9" s="50" t="n"/>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grade Allowance </t>
-        </is>
-      </c>
-      <c r="D9" s="74">
+        <v>9660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="14">
         <f>D4*10%</f>
-        <v/>
-      </c>
-      <c r="E9" s="75">
+        <v>4153.4000000000005</v>
+      </c>
+      <c r="E9" s="15">
         <f>E4*10%</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="42" t="n"/>
-      <c r="B10" s="50" t="n"/>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Transport Allowance </t>
-        </is>
-      </c>
-      <c r="D10" s="74" t="n">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="14">
         <v>4100</v>
       </c>
-      <c r="E10" s="75" t="n">
+      <c r="E10" s="15">
         <v>4100</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="42" t="n"/>
-      <c r="B11" s="50" t="n"/>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Telephone/Internet Allowance </t>
-        </is>
-      </c>
-      <c r="D11" s="74" t="n">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="14">
         <v>2000</v>
       </c>
-      <c r="E11" s="75" t="n">
+      <c r="E11" s="15">
         <v>2000</v>
       </c>
     </row>
-    <row r="12" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A12" s="43" t="n"/>
-      <c r="B12" s="45" t="n"/>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>City Compensatory Allowance/Special</t>
-        </is>
-      </c>
-      <c r="D12" s="76">
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="17">
         <f>D4-SUM(D7:D11)</f>
-        <v/>
-      </c>
-      <c r="E12" s="77">
+        <v>2206.7999999999956</v>
+      </c>
+      <c r="E12" s="18">
         <f>E4-SUM(E7:E11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A13" s="19" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="B13" s="20" t="inlineStr">
-        <is>
-          <t>(A+B)</t>
-        </is>
-      </c>
-      <c r="C13" s="20" t="inlineStr">
-        <is>
-          <t>Gross Monthly</t>
-        </is>
-      </c>
-      <c r="D13" s="78">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="21">
         <f>SUM(D7:D12)</f>
-        <v/>
-      </c>
-      <c r="E13" s="79">
+        <v>41534</v>
+      </c>
+      <c r="E13" s="22">
         <f>SUM(E7:E12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="60" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="B14" s="49" t="inlineStr">
-        <is>
-          <t>Deductions</t>
-        </is>
-      </c>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>Employee Contribution to PF</t>
-        </is>
-      </c>
-      <c r="D14" s="72">
+        <v>48300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="11">
         <f>IF((D13 - D8) * 12% &gt; 1800, 1800, (D13 - D8) * 12%)</f>
-        <v/>
-      </c>
-      <c r="E14" s="73">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="12">
         <f>IF((E13 - E8) * 12% &gt; 1800, 1800, (E13 - E8) * 12%)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A15" s="42" t="n"/>
-      <c r="B15" s="50" t="n"/>
-      <c r="C15" s="23" t="inlineStr">
-        <is>
-          <t>Profession Tax</t>
-        </is>
-      </c>
-      <c r="D15" s="76" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="17">
         <v>200</v>
       </c>
-      <c r="E15" s="77" t="n">
+      <c r="E15" s="18">
         <v>200</v>
       </c>
     </row>
-    <row r="16" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A16" s="24" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="B16" s="25" t="inlineStr">
-        <is>
-          <t>(C-D)</t>
-        </is>
-      </c>
-      <c r="C16" s="25" t="inlineStr">
-        <is>
-          <t>In Hand Monthly Salary</t>
-        </is>
-      </c>
-      <c r="D16" s="80">
+    <row r="16" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="26">
         <f>D13-(D14+D15)</f>
-        <v/>
-      </c>
-      <c r="E16" s="81">
+        <v>39534</v>
+      </c>
+      <c r="E16" s="27">
         <f>E13-(E14+E15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="62" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="B17" s="44" t="inlineStr">
-        <is>
-          <t>Retirals Benefits (p.a)</t>
-        </is>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Employer Contribution to PF </t>
-        </is>
-      </c>
-      <c r="D17" s="72">
+        <v>46300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="11">
         <f>D14*12</f>
-        <v/>
-      </c>
-      <c r="E17" s="73">
+        <v>21600</v>
+      </c>
+      <c r="E17" s="12">
         <f>E14*12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="43" t="n"/>
-      <c r="B18" s="45" t="n"/>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Employer Gratuity Provision </t>
-        </is>
-      </c>
-      <c r="D18" s="74">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="14">
         <f>(D7*4.8%)*12</f>
-        <v/>
-      </c>
-      <c r="E18" s="75">
+        <v>11961.792000000001</v>
+      </c>
+      <c r="E18" s="15">
         <f>(E7*4.8%)*12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="41" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="B19" s="29" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Employer Contribution towards Insurance Enrolment</t>
-        </is>
-      </c>
-      <c r="D19" s="74">
+        <v>13910.400000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="14">
         <f>820*12</f>
-        <v/>
-      </c>
-      <c r="E19" s="75">
+        <v>9840</v>
+      </c>
+      <c r="E19" s="15">
         <f>410*12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="41" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="B20" s="29" t="inlineStr">
-        <is>
-          <t>Bonus</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>Diwali Bonus</t>
-        </is>
-      </c>
-      <c r="D20" s="74" t="n">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="14">
         <v>0</v>
       </c>
-      <c r="E20" s="75" t="n">
+      <c r="E20" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A21" s="16" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="B21" s="30" t="inlineStr">
-        <is>
-          <t>Variables</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>Variable Pay</t>
-        </is>
-      </c>
-      <c r="D21" s="76" t="n">
+    <row r="21" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="17">
         <v>0</v>
       </c>
-      <c r="E21" s="77" t="n">
+      <c r="E21" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A22" s="54" t="inlineStr">
-        <is>
-          <t>Annual Cost to Company (C+F+G)</t>
-        </is>
-      </c>
-      <c r="B22" s="55" t="n"/>
-      <c r="C22" s="56" t="n"/>
-      <c r="D22" s="78">
+    <row r="22" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="21">
         <f>(D13*12)+D17+D18+D19</f>
-        <v/>
-      </c>
-      <c r="E22" s="79">
+        <v>541809.79200000002</v>
+      </c>
+      <c r="E22" s="22">
         <f>(E13*12)+E17+E18+E19</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A23" s="64" t="inlineStr">
-        <is>
-          <t>Other Benefits</t>
-        </is>
-      </c>
-      <c r="B23" s="55" t="n"/>
-      <c r="C23" s="55" t="n"/>
-      <c r="D23" s="55" t="n"/>
-      <c r="E23" s="65" t="n"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="63" t="inlineStr">
-        <is>
-          <t>Benefits</t>
-        </is>
-      </c>
-      <c r="B24" s="53" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="C24" s="39" t="inlineStr">
-        <is>
-          <t>Insurance Benefits</t>
-        </is>
-      </c>
-      <c r="D24" s="40" t="n"/>
-      <c r="E24" s="31" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="42" t="n"/>
-      <c r="B25" s="50" t="n"/>
-      <c r="C25" s="52" t="inlineStr">
-        <is>
-          <t>Group Health Insurance Policy (with Provision of Enhancement of Cover upto 200%)</t>
-        </is>
-      </c>
-      <c r="D25" s="48" t="n"/>
-      <c r="E25" s="82" t="n">
+        <v>620030.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="65"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="32">
         <v>500000</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="42" t="n"/>
-      <c r="B26" s="50" t="n"/>
-      <c r="C26" s="47" t="inlineStr">
-        <is>
-          <t>Group Pesonal Accident Insurance</t>
-        </is>
-      </c>
-      <c r="D26" s="48" t="n"/>
-      <c r="E26" s="82" t="n">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="48"/>
+      <c r="E26" s="32">
         <v>100000</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="42" t="n"/>
-      <c r="B27" s="50" t="n"/>
-      <c r="C27" s="47" t="inlineStr">
-        <is>
-          <t>Workman Compensation</t>
-        </is>
-      </c>
-      <c r="D27" s="48" t="n"/>
-      <c r="E27" s="82" t="n">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="48"/>
+      <c r="E27" s="32">
         <v>150000</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="42" t="n"/>
-      <c r="B28" s="45" t="n"/>
-      <c r="C28" s="47" t="inlineStr">
-        <is>
-          <t>EDLI Coverage</t>
-        </is>
-      </c>
-      <c r="D28" s="48" t="n"/>
-      <c r="E28" s="82" t="n">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="48"/>
+      <c r="E28" s="32">
         <v>700000</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="42" t="n"/>
-      <c r="B29" s="28" t="inlineStr">
-        <is>
-          <t>Uniform</t>
-        </is>
-      </c>
-      <c r="C29" s="47" t="inlineStr">
-        <is>
-          <t>Uniform and Safety Gear</t>
-        </is>
-      </c>
-      <c r="D29" s="48" t="n"/>
-      <c r="E29" s="82" t="n">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="32">
         <v>4050</v>
       </c>
     </row>
-    <row r="30" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A30" s="43" t="n"/>
-      <c r="B30" s="33" t="inlineStr">
-        <is>
-          <t>Leaves</t>
-        </is>
-      </c>
-      <c r="C30" s="37" t="inlineStr">
-        <is>
-          <t>Leave (National monitised value of Earned Leaves for Full Years)</t>
-        </is>
-      </c>
-      <c r="D30" s="38" t="n"/>
-      <c r="E30" s="83" t="n">
+    <row r="30" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="43"/>
+      <c r="B30" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="34">
         <v>8000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="A8:A12"/>
@@ -1661,13 +1607,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/media/excel_templates/salary_template.xlsx
+++ b/media/excel_templates/salary_template.xlsx
@@ -1,261 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayk\Documents\Resources Plan and skill matrix\ResourceManagement\media\excel_templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2004A3D-B96B-4FC5-9F7C-314E19E3D187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
-  <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
-    <t>FY24-25</t>
-  </si>
-  <si>
-    <t>FY25-26</t>
-  </si>
-  <si>
-    <t>Name Of Employee</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly Gross </t>
-  </si>
-  <si>
-    <t>Sr. No</t>
-  </si>
-  <si>
-    <t>Head</t>
-  </si>
-  <si>
-    <t>Heads of Payment</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Basic Salary</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Allowances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">House Rent Allowance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grade Allowance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transport Allowance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telephone/Internet Allowance </t>
-  </si>
-  <si>
-    <t>City Compensatory Allowance/Special</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>(A+B)</t>
-  </si>
-  <si>
-    <t>Gross Monthly</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Deductions</t>
-  </si>
-  <si>
-    <t>Employee Contribution to PF</t>
-  </si>
-  <si>
-    <t>Profession Tax</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>(C-D)</t>
-  </si>
-  <si>
-    <t>In Hand Monthly Salary</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Retirals Benefits (p.a)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employer Contribution to PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employer Gratuity Provision </t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>Employer Contribution towards Insurance Enrolment</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Bonus</t>
-  </si>
-  <si>
-    <t>Diwali Bonus</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>Variable Pay</t>
-  </si>
-  <si>
-    <t>Annual Cost to Company (C+F+G)</t>
-  </si>
-  <si>
-    <t>Other Benefits</t>
-  </si>
-  <si>
-    <t>Benefits</t>
-  </si>
-  <si>
-    <t>Insurance Benefits</t>
-  </si>
-  <si>
-    <t>Group Health Insurance Policy (with Provision of Enhancement of Cover upto 200%)</t>
-  </si>
-  <si>
-    <t>Group Pesonal Accident Insurance</t>
-  </si>
-  <si>
-    <t>Workman Compensation</t>
-  </si>
-  <si>
-    <t>EDLI Coverage</t>
-  </si>
-  <si>
-    <t>Uniform</t>
-  </si>
-  <si>
-    <t>Uniform and Safety Gear</t>
-  </si>
-  <si>
-    <t>Leaves</t>
-  </si>
-  <si>
-    <t>Leave (National monitised value of Earned Leaves for Full Years)</t>
-  </si>
-  <si>
-    <t>PCS0007</t>
-  </si>
-  <si>
-    <t>Mr. Gaurab Pal</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -268,18 +70,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.09997863704336681"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -665,175 +467,308 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="84">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="15" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="15" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="15" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1133,466 +1068,585 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col width="20.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="64" customWidth="1" min="3" max="3"/>
+    <col width="21.140625" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="46" t="inlineStr">
+        <is>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="B1" s="38" t="n"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PCS0054</t>
+        </is>
+      </c>
+      <c r="D1" s="51" t="inlineStr">
+        <is>
+          <t>FY24-25</t>
+        </is>
+      </c>
+      <c r="E1" s="66" t="inlineStr">
+        <is>
+          <t>FY25-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="61" t="inlineStr">
+        <is>
+          <t>Name Of Employee</t>
+        </is>
+      </c>
+      <c r="B2" s="48" t="n"/>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Srushti Bagawe</t>
+        </is>
+      </c>
+      <c r="D2" s="50" t="n"/>
+      <c r="E2" s="67" t="n"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A3" s="58" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B3" s="59" t="n"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" s="45" t="n"/>
+      <c r="E3" s="68" t="n"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A4" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monthly Gross </t>
+        </is>
+      </c>
+      <c r="B4" s="55" t="n"/>
+      <c r="C4" s="56" t="n"/>
+      <c r="D4" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="67"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="68"/>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="35">
-        <v>41534</v>
-      </c>
-      <c r="E4" s="36">
-        <v>48300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="E4" s="71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="4" t="n"/>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+    </row>
+    <row r="6" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Sr. No</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>Head</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>Heads of Payment</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="inlineStr">
+        <is>
+          <t>Basic Salary</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="inlineStr">
+        <is>
+          <t>Basic</t>
+        </is>
+      </c>
+      <c r="D7" s="72">
         <f>D4*50%</f>
-        <v>20767</v>
-      </c>
-      <c r="E7" s="12">
+        <v/>
+      </c>
+      <c r="E7" s="73">
         <f>E4*50%</f>
-        <v>24150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="14">
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B8" s="69" t="inlineStr">
+        <is>
+          <t>Allowances</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">House Rent Allowance </t>
+        </is>
+      </c>
+      <c r="D8" s="74">
         <f>D7*40%</f>
-        <v>8306.8000000000011</v>
-      </c>
-      <c r="E8" s="15">
+        <v/>
+      </c>
+      <c r="E8" s="75">
         <f>E7*40%</f>
-        <v>9660</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="14">
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="42" t="n"/>
+      <c r="B9" s="50" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grade Allowance </t>
+        </is>
+      </c>
+      <c r="D9" s="74">
         <f>D4*10%</f>
-        <v>4153.4000000000005</v>
-      </c>
-      <c r="E9" s="15">
+        <v/>
+      </c>
+      <c r="E9" s="75">
         <f>E4*10%</f>
-        <v>4830</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="14">
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="42" t="n"/>
+      <c r="B10" s="50" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transport Allowance </t>
+        </is>
+      </c>
+      <c r="D10" s="74" t="n">
         <v>4100</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="75" t="n">
         <v>4100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="14">
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="42" t="n"/>
+      <c r="B11" s="50" t="n"/>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Telephone/Internet Allowance </t>
+        </is>
+      </c>
+      <c r="D11" s="74" t="n">
         <v>2000</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="75" t="n">
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="17">
+    <row r="12" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A12" s="43" t="n"/>
+      <c r="B12" s="45" t="n"/>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>City Compensatory Allowance/Special</t>
+        </is>
+      </c>
+      <c r="D12" s="76">
         <f>D4-SUM(D7:D11)</f>
-        <v>2206.7999999999956</v>
-      </c>
-      <c r="E12" s="18">
+        <v/>
+      </c>
+      <c r="E12" s="77">
         <f>E4-SUM(E7:E11)</f>
-        <v>3560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="21">
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A13" s="19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B13" s="20" t="inlineStr">
+        <is>
+          <t>(A+B)</t>
+        </is>
+      </c>
+      <c r="C13" s="20" t="inlineStr">
+        <is>
+          <t>Gross Monthly</t>
+        </is>
+      </c>
+      <c r="D13" s="78">
         <f>SUM(D7:D12)</f>
-        <v>41534</v>
-      </c>
-      <c r="E13" s="22">
+        <v/>
+      </c>
+      <c r="E13" s="79">
         <f>SUM(E7:E12)</f>
-        <v>48300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="11">
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="60" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B14" s="49" t="inlineStr">
+        <is>
+          <t>Deductions</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Employee Contribution to PF</t>
+        </is>
+      </c>
+      <c r="D14" s="72">
         <f>IF((D13 - D8) * 12% &gt; 1800, 1800, (D13 - D8) * 12%)</f>
-        <v>1800</v>
-      </c>
-      <c r="E14" s="12">
+        <v/>
+      </c>
+      <c r="E14" s="73">
         <f>IF((E13 - E8) * 12% &gt; 1800, 1800, (E13 - E8) * 12%)</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="17">
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A15" s="42" t="n"/>
+      <c r="B15" s="50" t="n"/>
+      <c r="C15" s="23" t="inlineStr">
+        <is>
+          <t>Profession Tax</t>
+        </is>
+      </c>
+      <c r="D15" s="76" t="n">
         <v>200</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="77" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="26">
+    <row r="16" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A16" s="24" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B16" s="25" t="inlineStr">
+        <is>
+          <t>(C-D)</t>
+        </is>
+      </c>
+      <c r="C16" s="25" t="inlineStr">
+        <is>
+          <t>In Hand Monthly Salary</t>
+        </is>
+      </c>
+      <c r="D16" s="80">
         <f>D13-(D14+D15)</f>
-        <v>39534</v>
-      </c>
-      <c r="E16" s="27">
+        <v/>
+      </c>
+      <c r="E16" s="81">
         <f>E13-(E14+E15)</f>
-        <v>46300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="11">
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="62" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B17" s="44" t="inlineStr">
+        <is>
+          <t>Retirals Benefits (p.a)</t>
+        </is>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Employer Contribution to PF </t>
+        </is>
+      </c>
+      <c r="D17" s="72">
         <f>D14*12</f>
-        <v>21600</v>
-      </c>
-      <c r="E17" s="12">
+        <v/>
+      </c>
+      <c r="E17" s="73">
         <f>E14*12</f>
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="14">
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="43" t="n"/>
+      <c r="B18" s="45" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Employer Gratuity Provision </t>
+        </is>
+      </c>
+      <c r="D18" s="74">
         <f>(D7*4.8%)*12</f>
-        <v>11961.792000000001</v>
-      </c>
-      <c r="E18" s="15">
+        <v/>
+      </c>
+      <c r="E18" s="75">
         <f>(E7*4.8%)*12</f>
-        <v>13910.400000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="14">
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="41" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B19" s="29" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Employer Contribution towards Insurance Enrolment</t>
+        </is>
+      </c>
+      <c r="D19" s="74">
         <f>820*12</f>
-        <v>9840</v>
-      </c>
-      <c r="E19" s="15">
+        <v/>
+      </c>
+      <c r="E19" s="75">
         <f>410*12</f>
-        <v>4920</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="14">
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="41" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B20" s="29" t="inlineStr">
+        <is>
+          <t>Bonus</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Diwali Bonus</t>
+        </is>
+      </c>
+      <c r="D20" s="74" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="75" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="17">
+    <row r="21" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A21" s="16" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B21" s="30" t="inlineStr">
+        <is>
+          <t>Variables</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Variable Pay</t>
+        </is>
+      </c>
+      <c r="D21" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="77" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="21">
+    <row r="22" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A22" s="54" t="inlineStr">
+        <is>
+          <t>Annual Cost to Company (C+F+G)</t>
+        </is>
+      </c>
+      <c r="B22" s="55" t="n"/>
+      <c r="C22" s="56" t="n"/>
+      <c r="D22" s="78">
         <f>(D13*12)+D17+D18+D19</f>
-        <v>541809.79200000002</v>
-      </c>
-      <c r="E22" s="22">
+        <v/>
+      </c>
+      <c r="E22" s="79">
         <f>(E13*12)+E17+E18+E19</f>
-        <v>620030.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="65"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="32">
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A23" s="64" t="inlineStr">
+        <is>
+          <t>Other Benefits</t>
+        </is>
+      </c>
+      <c r="B23" s="55" t="n"/>
+      <c r="C23" s="55" t="n"/>
+      <c r="D23" s="55" t="n"/>
+      <c r="E23" s="65" t="n"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="63" t="inlineStr">
+        <is>
+          <t>Benefits</t>
+        </is>
+      </c>
+      <c r="B24" s="53" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="C24" s="37" t="inlineStr">
+        <is>
+          <t>Insurance Benefits</t>
+        </is>
+      </c>
+      <c r="D24" s="38" t="n"/>
+      <c r="E24" s="31" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="42" t="n"/>
+      <c r="B25" s="50" t="n"/>
+      <c r="C25" s="52" t="inlineStr">
+        <is>
+          <t>Group Health Insurance Policy (with Provision of Enhancement of Cover upto 200%)</t>
+        </is>
+      </c>
+      <c r="D25" s="48" t="n"/>
+      <c r="E25" s="82" t="n">
         <v>500000</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="32">
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="42" t="n"/>
+      <c r="B26" s="50" t="n"/>
+      <c r="C26" s="47" t="inlineStr">
+        <is>
+          <t>Group Pesonal Accident Insurance</t>
+        </is>
+      </c>
+      <c r="D26" s="48" t="n"/>
+      <c r="E26" s="82" t="n">
         <v>100000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="32">
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="42" t="n"/>
+      <c r="B27" s="50" t="n"/>
+      <c r="C27" s="47" t="inlineStr">
+        <is>
+          <t>Workman Compensation</t>
+        </is>
+      </c>
+      <c r="D27" s="48" t="n"/>
+      <c r="E27" s="82" t="n">
         <v>150000</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="32">
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="42" t="n"/>
+      <c r="B28" s="45" t="n"/>
+      <c r="C28" s="47" t="inlineStr">
+        <is>
+          <t>EDLI Coverage</t>
+        </is>
+      </c>
+      <c r="D28" s="48" t="n"/>
+      <c r="E28" s="82" t="n">
         <v>700000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="32">
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="42" t="n"/>
+      <c r="B29" s="28" t="inlineStr">
+        <is>
+          <t>Uniform</t>
+        </is>
+      </c>
+      <c r="C29" s="47" t="inlineStr">
+        <is>
+          <t>Uniform and Safety Gear</t>
+        </is>
+      </c>
+      <c r="D29" s="48" t="n"/>
+      <c r="E29" s="82" t="n">
         <v>4050</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="34">
+    <row r="30" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A30" s="43" t="n"/>
+      <c r="B30" s="33" t="inlineStr">
+        <is>
+          <t>Leaves</t>
+        </is>
+      </c>
+      <c r="C30" s="39" t="inlineStr">
+        <is>
+          <t>Leave (National monitised value of Earned Leaves for Full Years)</t>
+        </is>
+      </c>
+      <c r="D30" s="40" t="n"/>
+      <c r="E30" s="83" t="n">
         <v>8000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C30:D30"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A1:B1"/>
@@ -1607,6 +1661,13 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/media/excel_templates/salary_template.xlsx
+++ b/media/excel_templates/salary_template.xlsx
@@ -1096,7 +1096,7 @@
       <c r="B1" s="38" t="n"/>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PCS0054</t>
+          <t>PCS0015</t>
         </is>
       </c>
       <c r="D1" s="51" t="inlineStr">
@@ -1119,7 +1119,7 @@
       <c r="B2" s="48" t="n"/>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Srushti Bagawe</t>
+          <t>Mr. Santhosh Saravanan</t>
         </is>
       </c>
       <c r="D2" s="50" t="n"/>
@@ -1149,10 +1149,10 @@
       <c r="B4" s="55" t="n"/>
       <c r="C4" s="56" t="n"/>
       <c r="D4" s="70" t="n">
-        <v>0</v>
+        <v>79200</v>
       </c>
       <c r="E4" s="71" t="n">
-        <v>0</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1" thickBot="1">
